--- a/xlsx/瑞士歷史辭典_intext.xlsx
+++ b/xlsx/瑞士歷史辭典_intext.xlsx
@@ -29,7 +29,7 @@
     <t>德語</t>
   </si>
   <si>
-    <t>政策_政策_美國_瑞士歷史辭典</t>
+    <t>体育运动_体育运动_奥林匹克运动会_瑞士歷史辭典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
